--- a/pandas_scripts/implementations/intake/APM_Implementation_Requests.xlsx
+++ b/pandas_scripts/implementations/intake/APM_Implementation_Requests.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Application Owner</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Cloud Service Used</t>
   </si>
   <si>
-    <t>Tech Stack</t>
+    <t>Technologies</t>
   </si>
   <si>
     <t>Application URL</t>
@@ -70,12 +70,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -107,8 +113,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,7 +423,7 @@
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="11" width="18.7109375" customWidth="1"/>
   </cols>
@@ -458,9 +464,21 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>"gcp,aws,azure"</formula1>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>"aws,azuregcp,vdc"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>"custom,ec2,ecr,eks,elb,fargate,lambda,network_elb,rds,sqs"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>"java,.net,node,php,python"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+      <formula1>"rhel,solaris,windows"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pandas_scripts/implementations/intake/APM_Implementation_Requests.xlsx
+++ b/pandas_scripts/implementations/intake/APM_Implementation_Requests.xlsx
@@ -469,7 +469,7 @@
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>"aws,azuregcp,vdc"</formula1>
+      <formula1>"aws,azure,gcp,vdc"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>"custom,ec2,ecr,eks,elb,fargate,lambda,network_elb,rds,sqs"</formula1>
